--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N2">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q2">
-        <v>3.376279414945818</v>
+        <v>6.974634136392222</v>
       </c>
       <c r="R2">
-        <v>3.376279414945818</v>
+        <v>62.77170722752999</v>
       </c>
       <c r="S2">
-        <v>0.1906857363625719</v>
+        <v>0.1844870484076153</v>
       </c>
       <c r="T2">
-        <v>0.1906857363625719</v>
+        <v>0.1844870484076153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N3">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q3">
-        <v>0.957263742801954</v>
+        <v>1.907878614717778</v>
       </c>
       <c r="R3">
-        <v>0.957263742801954</v>
+        <v>17.17090753246</v>
       </c>
       <c r="S3">
-        <v>0.05406440618668748</v>
+        <v>0.05046557102009674</v>
       </c>
       <c r="T3">
-        <v>0.05406440618668748</v>
+        <v>0.05046557102009672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N4">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q4">
-        <v>1.379272213623446</v>
+        <v>3.236014539576111</v>
       </c>
       <c r="R4">
-        <v>1.379272213623446</v>
+        <v>29.124130856185</v>
       </c>
       <c r="S4">
-        <v>0.07789862904561827</v>
+        <v>0.08559628495715436</v>
       </c>
       <c r="T4">
-        <v>0.07789862904561827</v>
+        <v>0.08559628495715435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.661803308382329</v>
+        <v>1.093401</v>
       </c>
       <c r="N5">
-        <v>0.661803308382329</v>
+        <v>3.280203</v>
       </c>
       <c r="O5">
-        <v>0.243613601581812</v>
+        <v>0.328579279069553</v>
       </c>
       <c r="P5">
-        <v>0.243613601581812</v>
+        <v>0.3285792790695531</v>
       </c>
       <c r="Q5">
-        <v>1.839958426939125</v>
+        <v>5.930554176284999</v>
       </c>
       <c r="R5">
-        <v>1.839958426939125</v>
+        <v>53.37498758656499</v>
       </c>
       <c r="S5">
-        <v>0.1039172960520618</v>
+        <v>0.1568699395564608</v>
       </c>
       <c r="T5">
-        <v>0.1039172960520618</v>
+        <v>0.1568699395564607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N6">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O6">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P6">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q6">
-        <v>1.886998696380739</v>
+        <v>2.036220832546444</v>
       </c>
       <c r="R6">
-        <v>1.886998696380739</v>
+        <v>18.325987492918</v>
       </c>
       <c r="S6">
-        <v>0.1065740395601556</v>
+        <v>0.05386036944109972</v>
       </c>
       <c r="T6">
-        <v>0.1065740395601556</v>
+        <v>0.05386036944109971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N7">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P7">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q7">
-        <v>0.5350136089932659</v>
+        <v>0.5569987049195556</v>
       </c>
       <c r="R7">
-        <v>0.5350136089932659</v>
+        <v>5.012988344276</v>
       </c>
       <c r="S7">
-        <v>0.03021653466927743</v>
+        <v>0.01473325267361298</v>
       </c>
       <c r="T7">
-        <v>0.03021653466927743</v>
+        <v>0.01473325267361298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N8">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O8">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P8">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q8">
-        <v>0.7708736597866517</v>
+        <v>0.9447434935012221</v>
       </c>
       <c r="R8">
-        <v>0.7708736597866517</v>
+        <v>8.502691441510999</v>
       </c>
       <c r="S8">
-        <v>0.04353745451523519</v>
+        <v>0.02498954571809214</v>
       </c>
       <c r="T8">
-        <v>0.04353745451523519</v>
+        <v>0.02498954571809214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.661803308382329</v>
+        <v>1.093401</v>
       </c>
       <c r="N9">
-        <v>0.661803308382329</v>
+        <v>3.280203</v>
       </c>
       <c r="O9">
-        <v>0.243613601581812</v>
+        <v>0.328579279069553</v>
       </c>
       <c r="P9">
-        <v>0.243613601581812</v>
+        <v>0.3285792790695531</v>
       </c>
       <c r="Q9">
-        <v>1.028350656542033</v>
+        <v>1.731405221571</v>
       </c>
       <c r="R9">
-        <v>1.028350656542033</v>
+        <v>15.582646994139</v>
       </c>
       <c r="S9">
-        <v>0.05807925769224249</v>
+        <v>0.04579764797388994</v>
       </c>
       <c r="T9">
-        <v>0.05807925769224249</v>
+        <v>0.04579764797388994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N10">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O10">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P10">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q10">
-        <v>0.7240910459033217</v>
+        <v>0.8564993050957778</v>
       </c>
       <c r="R10">
-        <v>0.7240910459033217</v>
+        <v>7.708493745862</v>
       </c>
       <c r="S10">
-        <v>0.04089526289512847</v>
+        <v>0.02265538602746397</v>
       </c>
       <c r="T10">
-        <v>0.04089526289512847</v>
+        <v>0.02265538602746397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N11">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P11">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q11">
-        <v>0.2052987977424015</v>
+        <v>0.2342913872982222</v>
       </c>
       <c r="R11">
-        <v>0.2052987977424015</v>
+        <v>2.108622485684</v>
       </c>
       <c r="S11">
-        <v>0.01159487933627934</v>
+        <v>0.00619727510643775</v>
       </c>
       <c r="T11">
-        <v>0.01159487933627934</v>
+        <v>0.006197275106437749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N12">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O12">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P12">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q12">
-        <v>0.2958045046055579</v>
+        <v>0.3973891891998889</v>
       </c>
       <c r="R12">
-        <v>0.2958045046055579</v>
+        <v>3.576502702799</v>
       </c>
       <c r="S12">
-        <v>0.01670646674868934</v>
+        <v>0.01051139846921141</v>
       </c>
       <c r="T12">
-        <v>0.01670646674868934</v>
+        <v>0.01051139846921141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.661803308382329</v>
+        <v>1.093401</v>
       </c>
       <c r="N13">
-        <v>0.661803308382329</v>
+        <v>3.280203</v>
       </c>
       <c r="O13">
-        <v>0.243613601581812</v>
+        <v>0.328579279069553</v>
       </c>
       <c r="P13">
-        <v>0.243613601581812</v>
+        <v>0.3285792790695531</v>
       </c>
       <c r="Q13">
-        <v>0.39460520236663</v>
+        <v>0.7282841553389998</v>
       </c>
       <c r="R13">
-        <v>0.39460520236663</v>
+        <v>6.554557398050999</v>
       </c>
       <c r="S13">
-        <v>0.02228653921612411</v>
+        <v>0.01926394870226488</v>
       </c>
       <c r="T13">
-        <v>0.02228653921612411</v>
+        <v>0.01926394870226488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H14">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N14">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O14">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P14">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q14">
-        <v>1.92765191692715</v>
+        <v>4.741692320802889</v>
       </c>
       <c r="R14">
-        <v>1.92765191692715</v>
+        <v>42.675230887226</v>
       </c>
       <c r="S14">
-        <v>0.1088700548902514</v>
+        <v>0.1254231840144205</v>
       </c>
       <c r="T14">
-        <v>0.1088700548902514</v>
+        <v>0.1254231840144205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H15">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N15">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O15">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P15">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q15">
-        <v>0.5465398629771457</v>
+        <v>1.297067803059111</v>
       </c>
       <c r="R15">
-        <v>0.5465398629771457</v>
+        <v>11.673610227532</v>
       </c>
       <c r="S15">
-        <v>0.03086751521866228</v>
+        <v>0.03430892658904464</v>
       </c>
       <c r="T15">
-        <v>0.03086751521866228</v>
+        <v>0.03430892658904463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H16">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N16">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O16">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P16">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q16">
-        <v>0.7874812477859614</v>
+        <v>2.199998593797444</v>
       </c>
       <c r="R16">
-        <v>0.7874812477859614</v>
+        <v>19.799987344177</v>
       </c>
       <c r="S16">
-        <v>0.04447541898963146</v>
+        <v>0.05819247850619735</v>
       </c>
       <c r="T16">
-        <v>0.04447541898963146</v>
+        <v>0.05819247850619735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H17">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.661803308382329</v>
+        <v>1.093401</v>
       </c>
       <c r="N17">
-        <v>0.661803308382329</v>
+        <v>3.280203</v>
       </c>
       <c r="O17">
-        <v>0.243613601581812</v>
+        <v>0.328579279069553</v>
       </c>
       <c r="P17">
-        <v>0.243613601581812</v>
+        <v>0.3285792790695531</v>
       </c>
       <c r="Q17">
-        <v>1.050505290840209</v>
+        <v>4.031876460596999</v>
       </c>
       <c r="R17">
-        <v>1.050505290840209</v>
+        <v>36.286888145373</v>
       </c>
       <c r="S17">
-        <v>0.05933050862138367</v>
+        <v>0.1066477428369375</v>
       </c>
       <c r="T17">
-        <v>0.05933050862138367</v>
+        <v>0.1066477428369375</v>
       </c>
     </row>
   </sheetData>
